--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Robo1-Robo1.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Robo1-Robo1.xlsx
@@ -525,52 +525,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.454354791691104</v>
+        <v>0.6629413333333334</v>
       </c>
       <c r="H2">
-        <v>0.454354791691104</v>
+        <v>1.988824</v>
       </c>
       <c r="I2">
-        <v>0.01350576974878273</v>
+        <v>0.01938545156182102</v>
       </c>
       <c r="J2">
-        <v>0.01350576974878273</v>
+        <v>0.01938545156182102</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.454354791691104</v>
+        <v>0.6629413333333334</v>
       </c>
       <c r="N2">
-        <v>0.454354791691104</v>
+        <v>1.988824</v>
       </c>
       <c r="O2">
-        <v>0.01350576974878273</v>
+        <v>0.01938545156182102</v>
       </c>
       <c r="P2">
-        <v>0.01350576974878273</v>
+        <v>0.01938545156182102</v>
       </c>
       <c r="Q2">
-        <v>0.2064382767326665</v>
+        <v>0.4394912114417778</v>
       </c>
       <c r="R2">
-        <v>0.2064382767326665</v>
+        <v>3.955420902976001</v>
       </c>
       <c r="S2">
-        <v>0.0001824058165071348</v>
+        <v>0.000375795732255709</v>
       </c>
       <c r="T2">
-        <v>0.0001824058165071348</v>
+        <v>0.000375795732255709</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,52 +587,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.454354791691104</v>
+        <v>0.6629413333333334</v>
       </c>
       <c r="H3">
-        <v>0.454354791691104</v>
+        <v>1.988824</v>
       </c>
       <c r="I3">
-        <v>0.01350576974878273</v>
+        <v>0.01938545156182102</v>
       </c>
       <c r="J3">
-        <v>0.01350576974878273</v>
+        <v>0.01938545156182102</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>29.7621594695223</v>
+        <v>29.811843</v>
       </c>
       <c r="N3">
-        <v>29.7621594695223</v>
+        <v>89.435529</v>
       </c>
       <c r="O3">
-        <v>0.8846850091001077</v>
+        <v>0.8717453707996982</v>
       </c>
       <c r="P3">
-        <v>0.8846850091001077</v>
+        <v>0.8717453707996982</v>
       </c>
       <c r="Q3">
-        <v>13.52257976605222</v>
+        <v>19.763502947544</v>
       </c>
       <c r="R3">
-        <v>13.52257976605222</v>
+        <v>177.871526527896</v>
       </c>
       <c r="S3">
-        <v>0.01194835203310581</v>
+        <v>0.01689917765987925</v>
       </c>
       <c r="T3">
-        <v>0.01194835203310581</v>
+        <v>0.01689917765987925</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,52 +649,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.454354791691104</v>
+        <v>0.6629413333333334</v>
       </c>
       <c r="H4">
-        <v>0.454354791691104</v>
+        <v>1.988824</v>
       </c>
       <c r="I4">
-        <v>0.01350576974878273</v>
+        <v>0.01938545156182102</v>
       </c>
       <c r="J4">
-        <v>0.01350576974878273</v>
+        <v>0.01938545156182102</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>3.42501822026953</v>
+        <v>3.723095</v>
       </c>
       <c r="N4">
-        <v>3.42501822026953</v>
+        <v>11.169285</v>
       </c>
       <c r="O4">
-        <v>0.1018092211511095</v>
+        <v>0.1088691776384809</v>
       </c>
       <c r="P4">
-        <v>0.1018092211511095</v>
+        <v>0.1088691776384809</v>
       </c>
       <c r="Q4">
-        <v>1.556173440008798</v>
+        <v>2.468193563426667</v>
       </c>
       <c r="R4">
-        <v>1.556173440008798</v>
+        <v>22.21374207084</v>
       </c>
       <c r="S4">
-        <v>0.001375011899169786</v>
+        <v>0.002110478169686059</v>
       </c>
       <c r="T4">
-        <v>0.001375011899169786</v>
+        <v>0.002110478169686059</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,52 +711,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>29.7621594695223</v>
+        <v>29.811843</v>
       </c>
       <c r="H5">
-        <v>29.7621594695223</v>
+        <v>89.435529</v>
       </c>
       <c r="I5">
-        <v>0.8846850091001077</v>
+        <v>0.8717453707996982</v>
       </c>
       <c r="J5">
-        <v>0.8846850091001077</v>
+        <v>0.8717453707996982</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.454354791691104</v>
+        <v>0.6629413333333334</v>
       </c>
       <c r="N5">
-        <v>0.454354791691104</v>
+        <v>1.988824</v>
       </c>
       <c r="O5">
-        <v>0.01350576974878273</v>
+        <v>0.01938545156182102</v>
       </c>
       <c r="P5">
-        <v>0.01350576974878273</v>
+        <v>0.01938545156182102</v>
       </c>
       <c r="Q5">
-        <v>13.52257976605222</v>
+        <v>19.763502947544</v>
       </c>
       <c r="R5">
-        <v>13.52257976605222</v>
+        <v>177.871526527896</v>
       </c>
       <c r="S5">
-        <v>0.01194835203310581</v>
+        <v>0.01689917765987925</v>
       </c>
       <c r="T5">
-        <v>0.01194835203310581</v>
+        <v>0.01689917765987925</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,52 +773,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>29.7621594695223</v>
+        <v>29.811843</v>
       </c>
       <c r="H6">
-        <v>29.7621594695223</v>
+        <v>89.435529</v>
       </c>
       <c r="I6">
-        <v>0.8846850091001077</v>
+        <v>0.8717453707996982</v>
       </c>
       <c r="J6">
-        <v>0.8846850091001077</v>
+        <v>0.8717453707996982</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>29.7621594695223</v>
+        <v>29.811843</v>
       </c>
       <c r="N6">
-        <v>29.7621594695223</v>
+        <v>89.435529</v>
       </c>
       <c r="O6">
-        <v>0.8846850091001077</v>
+        <v>0.8717453707996982</v>
       </c>
       <c r="P6">
-        <v>0.8846850091001077</v>
+        <v>0.8717453707996982</v>
       </c>
       <c r="Q6">
-        <v>885.7861362892759</v>
+        <v>888.7459830566489</v>
       </c>
       <c r="R6">
-        <v>885.7861362892759</v>
+        <v>7998.713847509842</v>
       </c>
       <c r="S6">
-        <v>0.7826675653264576</v>
+        <v>0.7599399915107032</v>
       </c>
       <c r="T6">
-        <v>0.7826675653264576</v>
+        <v>0.7599399915107032</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,52 +835,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>29.7621594695223</v>
+        <v>29.811843</v>
       </c>
       <c r="H7">
-        <v>29.7621594695223</v>
+        <v>89.435529</v>
       </c>
       <c r="I7">
-        <v>0.8846850091001077</v>
+        <v>0.8717453707996982</v>
       </c>
       <c r="J7">
-        <v>0.8846850091001077</v>
+        <v>0.8717453707996982</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>3.42501822026953</v>
+        <v>3.723095</v>
       </c>
       <c r="N7">
-        <v>3.42501822026953</v>
+        <v>11.169285</v>
       </c>
       <c r="O7">
-        <v>0.1018092211511095</v>
+        <v>0.1088691776384809</v>
       </c>
       <c r="P7">
-        <v>0.1018092211511095</v>
+        <v>0.1088691776384809</v>
       </c>
       <c r="Q7">
-        <v>101.9359384576812</v>
+        <v>110.992323614085</v>
       </c>
       <c r="R7">
-        <v>101.9359384576812</v>
+        <v>998.930912526765</v>
       </c>
       <c r="S7">
-        <v>0.09006909174054419</v>
+        <v>0.09490620162911571</v>
       </c>
       <c r="T7">
-        <v>0.09006909174054419</v>
+        <v>0.09490620162911571</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,52 +897,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>3.42501822026953</v>
+        <v>3.723095</v>
       </c>
       <c r="H8">
-        <v>3.42501822026953</v>
+        <v>11.169285</v>
       </c>
       <c r="I8">
-        <v>0.1018092211511095</v>
+        <v>0.1088691776384809</v>
       </c>
       <c r="J8">
-        <v>0.1018092211511095</v>
+        <v>0.1088691776384809</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.454354791691104</v>
+        <v>0.6629413333333334</v>
       </c>
       <c r="N8">
-        <v>0.454354791691104</v>
+        <v>1.988824</v>
       </c>
       <c r="O8">
-        <v>0.01350576974878273</v>
+        <v>0.01938545156182102</v>
       </c>
       <c r="P8">
-        <v>0.01350576974878273</v>
+        <v>0.01938545156182102</v>
       </c>
       <c r="Q8">
-        <v>1.556173440008798</v>
+        <v>2.468193563426667</v>
       </c>
       <c r="R8">
-        <v>1.556173440008798</v>
+        <v>22.21374207084</v>
       </c>
       <c r="S8">
-        <v>0.001375011899169786</v>
+        <v>0.002110478169686059</v>
       </c>
       <c r="T8">
-        <v>0.001375011899169786</v>
+        <v>0.002110478169686059</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,52 +959,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>3.42501822026953</v>
+        <v>3.723095</v>
       </c>
       <c r="H9">
-        <v>3.42501822026953</v>
+        <v>11.169285</v>
       </c>
       <c r="I9">
-        <v>0.1018092211511095</v>
+        <v>0.1088691776384809</v>
       </c>
       <c r="J9">
-        <v>0.1018092211511095</v>
+        <v>0.1088691776384809</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>29.7621594695223</v>
+        <v>29.811843</v>
       </c>
       <c r="N9">
-        <v>29.7621594695223</v>
+        <v>89.435529</v>
       </c>
       <c r="O9">
-        <v>0.8846850091001077</v>
+        <v>0.8717453707996982</v>
       </c>
       <c r="P9">
-        <v>0.8846850091001077</v>
+        <v>0.8717453707996982</v>
       </c>
       <c r="Q9">
-        <v>101.9359384576812</v>
+        <v>110.992323614085</v>
       </c>
       <c r="R9">
-        <v>101.9359384576812</v>
+        <v>998.930912526765</v>
       </c>
       <c r="S9">
-        <v>0.09006909174054419</v>
+        <v>0.09490620162911571</v>
       </c>
       <c r="T9">
-        <v>0.09006909174054419</v>
+        <v>0.09490620162911571</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,52 +1021,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>3.42501822026953</v>
+        <v>3.723095</v>
       </c>
       <c r="H10">
-        <v>3.42501822026953</v>
+        <v>11.169285</v>
       </c>
       <c r="I10">
-        <v>0.1018092211511095</v>
+        <v>0.1088691776384809</v>
       </c>
       <c r="J10">
-        <v>0.1018092211511095</v>
+        <v>0.1088691776384809</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>3.42501822026953</v>
+        <v>3.723095</v>
       </c>
       <c r="N10">
-        <v>3.42501822026953</v>
+        <v>11.169285</v>
       </c>
       <c r="O10">
-        <v>0.1018092211511095</v>
+        <v>0.1088691776384809</v>
       </c>
       <c r="P10">
-        <v>0.1018092211511095</v>
+        <v>0.1088691776384809</v>
       </c>
       <c r="Q10">
-        <v>11.73074980917826</v>
+        <v>13.861436379025</v>
       </c>
       <c r="R10">
-        <v>11.73074980917826</v>
+        <v>124.752927411225</v>
       </c>
       <c r="S10">
-        <v>0.01036511751139552</v>
+        <v>0.0118524978396791</v>
       </c>
       <c r="T10">
-        <v>0.01036511751139552</v>
+        <v>0.0118524978396791</v>
       </c>
     </row>
   </sheetData>
